--- a/Surgicalogic.Api/App_Data/Migration/InitialData.xlsx
+++ b/Surgicalogic.Api/App_Data/Migration/InitialData.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Meta" sheetId="9" state="hidden" r:id="rId1"/>
+    <sheet name="Meta" sheetId="9" r:id="rId1"/>
     <sheet name="Ekipman Tipi" sheetId="2" r:id="rId2"/>
     <sheet name="Çalışma Tipi" sheetId="1" r:id="rId3"/>
     <sheet name="Şube" sheetId="5" r:id="rId4"/>
@@ -441,17 +441,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -459,7 +459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -467,7 +467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -475,7 +475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -483,7 +483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -491,7 +491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -499,7 +499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -507,7 +507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -525,16 +525,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -559,9 +559,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -586,9 +586,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -613,16 +613,16 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -653,9 +653,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -680,16 +680,16 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -725,9 +725,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>

--- a/Surgicalogic.Api/App_Data/Migration/InitialData.xlsx
+++ b/Surgicalogic.Api/App_Data/Migration/InitialData.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Meta" sheetId="9" state="hidden" r:id="rId1"/>
+    <sheet name="Meta" sheetId="9" r:id="rId1"/>
     <sheet name="Ekipman Tipi" sheetId="2" r:id="rId2"/>
     <sheet name="Çalışma Tipi" sheetId="1" r:id="rId3"/>
-    <sheet name="Şube" sheetId="5" r:id="rId4"/>
+    <sheet name="Branş" sheetId="5" r:id="rId4"/>
     <sheet name="Ekipman" sheetId="4" r:id="rId5"/>
     <sheet name="Personel Ünvanları" sheetId="6" r:id="rId6"/>
     <sheet name="Personel" sheetId="7" r:id="rId7"/>
@@ -121,7 +121,7 @@
     <t>Ameliyathane</t>
   </si>
   <si>
-    <t>Şube</t>
+    <t>Branş</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -582,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
